--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1349961.8997771</v>
+        <v>-1352642.762840508</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305.1963562100859</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>69.12515050403523</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>31.49478069649064</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>120.3332554667399</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>259.1014848265648</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>138.2963543483434</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>292.9374716272521</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>92.66871887508792</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>94.8122953136329</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>215.4368823668661</v>
       </c>
       <c r="F8" t="n">
-        <v>312.4259062726745</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>26.7582602963245</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>146.8983717619478</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.81060261323792</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465703</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>144.1088433014931</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>29.249233057517</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>72.60410776434607</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>75.7590545620421</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348875</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>94.64226186542889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>179.6926686226135</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652579</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.380918314301</v>
+        <v>494.0456011520457</v>
       </c>
       <c r="C2" t="n">
-        <v>1194.380918314301</v>
+        <v>494.0456011520457</v>
       </c>
       <c r="D2" t="n">
-        <v>836.1152197075508</v>
+        <v>494.0456011520457</v>
       </c>
       <c r="E2" t="n">
-        <v>766.2918353600404</v>
+        <v>494.0456011520457</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>83.0596963624381</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1502.660066001257</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1502.660066001257</v>
+        <v>880.6454412161675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.0018823909471</v>
+        <v>172.7955294637</v>
       </c>
       <c r="C4" t="n">
-        <v>666.0018823909471</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>515.8852429786114</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,25 +4486,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329318</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>927.7205539329318</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>666.0018823909471</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X4" t="n">
-        <v>666.0018823909471</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y4" t="n">
-        <v>666.0018823909471</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1699.061860336089</v>
+        <v>1420.453969953914</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.099343395678</v>
+        <v>1420.453969953914</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>1062.188271347164</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>1062.188271347164</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>651.2023665575562</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,7 +4583,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.89447953245</v>
+        <v>1810.593301929726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.755147556638</v>
+        <v>1420.453969953914</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,40 +4632,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100998</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>459.7279652981277</v>
+        <v>445.0465148290278</v>
       </c>
       <c r="C7" t="n">
-        <v>459.7279652981277</v>
+        <v>445.0465148290278</v>
       </c>
       <c r="D7" t="n">
-        <v>366.1231987576349</v>
+        <v>294.9298754166921</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>147.016781834299</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>147.016781834299</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>147.016781834299</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>147.016781834299</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063345</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W7" t="n">
-        <v>869.3659810263848</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="X7" t="n">
-        <v>641.3764301283675</v>
+        <v>445.0465148290278</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.3764301283675</v>
+        <v>445.0465148290278</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1511.231752124758</v>
+        <v>1081.071510755571</v>
       </c>
       <c r="C8" t="n">
-        <v>1511.231752124758</v>
+        <v>712.1089938151597</v>
       </c>
       <c r="D8" t="n">
-        <v>1152.966053518008</v>
+        <v>353.8432952084092</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.966053518008</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,13 +4802,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.83159218888</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.83159218888</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>1897.83159218888</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1897.83159218888</v>
+        <v>1467.671350819693</v>
       </c>
     </row>
     <row r="9">
@@ -4869,40 +4869,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>687.0249717364609</v>
+        <v>710.001021021798</v>
       </c>
       <c r="C10" t="n">
-        <v>518.088788808554</v>
+        <v>541.0648380938911</v>
       </c>
       <c r="D10" t="n">
-        <v>367.9721493962183</v>
+        <v>541.0648380938911</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962183</v>
+        <v>393.151744511498</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>246.2617970135877</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>78.27533232186624</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4960,52 +4960,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.199744578928</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="W10" t="n">
-        <v>1056.199744578928</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="X10" t="n">
-        <v>907.817550879991</v>
+        <v>930.7936001653281</v>
       </c>
       <c r="Y10" t="n">
-        <v>687.0249717364609</v>
+        <v>710.001021021798</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5030,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,19 +5118,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656172</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377103</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253745</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
         <v>484.8112968429803</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.079034721979</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>870.3164745246287</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>701.3802915967218</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396416</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.757518498398</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.964939354868</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,13 +5507,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6206,49 +6206,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580115</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,19 +7169,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7312,16 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,16 +7330,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7351,10 +7351,10 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,43 +7804,43 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,25 +8058,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>255.5240487471574</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>30.36925650589518</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,28 +8295,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>186.5911984019048</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>240.4465442417433</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>294.8344935184735</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>54.9531451156659</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.53748545339468</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>340.8476218413268</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.0213775686994</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>4.50662971671926</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>104.8770068749571</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>117.6820817884485</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.89198472948132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-5.562217481057792e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1063812.914126229</v>
+        <v>1063812.914126228</v>
       </c>
     </row>
     <row r="3">
@@ -26320,7 +26320,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380012</v>
@@ -26338,19 +26338,19 @@
         <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728567</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363184</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52108.58832472615</v>
+        <v>52108.58832472618</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
@@ -26427,34 +26427,34 @@
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731988</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731997</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731956</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982539</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982543</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="P4" t="n">
         <v>16108.17168982545</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1124396.431625033</v>
+        <v>-1124756.514640751</v>
       </c>
       <c r="C6" t="n">
-        <v>-63047.41872885163</v>
+        <v>-63047.4187288516</v>
       </c>
       <c r="D6" t="n">
         <v>-63047.41872885168</v>
       </c>
       <c r="E6" t="n">
-        <v>-455295.9639371836</v>
+        <v>-455330.7018626195</v>
       </c>
       <c r="F6" t="n">
-        <v>52189.47768736207</v>
+        <v>52154.73976192641</v>
       </c>
       <c r="G6" t="n">
-        <v>52189.4776873621</v>
+        <v>52154.73976192638</v>
       </c>
       <c r="H6" t="n">
-        <v>52189.47768736213</v>
+        <v>52154.73976192636</v>
       </c>
       <c r="I6" t="n">
-        <v>52189.47768736204</v>
+        <v>52154.73976192644</v>
       </c>
       <c r="J6" t="n">
-        <v>-115415.7001226205</v>
+        <v>-115450.4380480562</v>
       </c>
       <c r="K6" t="n">
-        <v>52189.47768736223</v>
+        <v>52154.73976192642</v>
       </c>
       <c r="L6" t="n">
-        <v>25508.34843548408</v>
+        <v>25508.34843548427</v>
       </c>
       <c r="M6" t="n">
-        <v>-87671.22729981077</v>
+        <v>-87671.22729981072</v>
       </c>
       <c r="N6" t="n">
         <v>44936.06642911592</v>
       </c>
       <c r="O6" t="n">
-        <v>44936.06642911598</v>
+        <v>44936.06642911595</v>
       </c>
       <c r="P6" t="n">
-        <v>44936.06642911589</v>
+        <v>44936.06642911586</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920398</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>312.8052195682266</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>39.20530023513652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>46.91356563188793</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>27.42151351002616</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>244.4374873151372</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>118.6102311457019</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>55.94675414312444</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>9.98429989026765</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>166.4934877053957</v>
       </c>
       <c r="F8" t="n">
-        <v>94.45013946903697</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>120.4932488588044</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>78.81128362708938</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N12" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O15" t="n">
-        <v>301.6445156724565</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32312,22 +32312,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614915</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,28 +32549,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>574.6535388222619</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>622.455381029198</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>365.7939385020181</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>577.7882979947786</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>490.1260733652756</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>592.5148541563236</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>390.3778271117889</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N12" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35647,7 +35647,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O15" t="n">
-        <v>159.048271228012</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394733</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,28 +36197,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>432.0572943778175</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>556.7168329578467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>45.87687150790109</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
